--- a/template/excel/dml_mapping_template.xlsx
+++ b/template/excel/dml_mapping_template.xlsx
@@ -1328,7 +1328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1413,7 +1413,7 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="3" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,14 +1443,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1458,16 +1467,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1488,16 +1506,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="53" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1870,7 +1891,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C22" sqref="C22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="21" customHeight="1"/>
@@ -1912,7 +1933,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="50"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="12"/>
@@ -1928,7 +1949,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="51"/>
+      <c r="L3" s="57"/>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A4" s="12"/>
@@ -1948,7 +1969,7 @@
       <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="52"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="15" t="s">
         <v>6</v>
       </c>
@@ -1996,7 +2017,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
-      <c r="L6" s="53"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A7" s="25"/>
@@ -2012,7 +2033,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="51"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" s="5" customFormat="1" customHeight="1" spans="1:12">
       <c r="A8" s="26"/>
@@ -2062,7 +2083,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="51"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A11" s="12"/>
@@ -2084,7 +2105,7 @@
       <c r="K11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="54" t="s">
+      <c r="L11" s="60" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2153,13 +2174,13 @@
       <c r="B14" s="40"/>
       <c r="C14" s="41"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="40"/>
       <c r="I14" s="41"/>
       <c r="J14" s="42"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="40"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:12">
@@ -2180,17 +2201,17 @@
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A16" s="12"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A17" s="12"/>
@@ -2206,10 +2227,10 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="51"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" s="6" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A18" s="44"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="37" t="s">
         <v>28</v>
       </c>
@@ -2229,28 +2250,28 @@
         <v>42</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="50"/>
+      <c r="K18" s="56"/>
       <c r="L18" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" customHeight="1" spans="1:13">
       <c r="A19" s="12"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:12">
@@ -2258,48 +2279,48 @@
       <c r="B20" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="63"/>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A21" s="12"/>
       <c r="B21" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="57"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="64"/>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A22" s="12"/>
       <c r="B22" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="58"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A23" s="25"/>
@@ -2315,55 +2336,55 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A24" s="25"/>
       <c r="B24" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A25" s="25"/>
       <c r="B25" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" s="6" customFormat="1" customHeight="1" spans="1:13">
       <c r="A26" s="25"/>
       <c r="B26" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="1"/>
     </row>
   </sheetData>
